--- a/fia/20210622/doc/Regressão linear simples.xlsx
+++ b/fia/20210622/doc/Regressão linear simples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\iCloudDrive\Documents\FIA\Aplicações de Estatística - Turma 3 (2021)\1. Aulas\02. Regressão Linear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210622\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B962D3-DAE8-48FE-8430-6430C2D2F9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A88A56-CA45-4748-82B6-B03A88E609A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Cia Aérea" sheetId="16" r:id="rId1"/>
@@ -37,18 +37,7 @@
     <definedName name="X">cia_aerea!$A$2:$A$65536</definedName>
     <definedName name="Y">cia_aerea!$B$2:$B$65536</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -69,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>Tempo de Experiência (Anos)</t>
   </si>
@@ -355,6 +344,9 @@
   </si>
   <si>
     <t xml:space="preserve">salario &lt;- read_excel("Regressão linear simples.xlsx",sheet="Salario" ) #Função que lê o arquivo xls e salva em uma base de dados R </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -752,7 +744,7 @@
                       <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -929,7 +921,7 @@
                 <a:cs typeface="Open Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1012,7 +1004,7 @@
                 <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="451941728"/>
@@ -1059,7 +1051,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1148,7 +1140,7 @@
                       </a:solidFill>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1408,7 +1400,7 @@
                 <a:cs typeface="Open Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1471,7 +1463,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="457541744"/>
@@ -1515,7 +1507,7 @@
           <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5804,7 +5796,7 @@
   </sheetPr>
   <dimension ref="B14:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8353,7 +8345,9 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8574,6 +8568,9 @@
     <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -8748,7 +8745,9 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9281,7 +9280,9 @@
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>

--- a/fia/20210622/doc/Regressão linear simples.xlsx
+++ b/fia/20210622/doc/Regressão linear simples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210622\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A88A56-CA45-4748-82B6-B03A88E609A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{915DB457-8DE4-48CA-8B17-E40D9898AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Cia Aérea" sheetId="16" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="Y">cia_aerea!$B$2:$B$65536</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>Tempo de Experiência (Anos)</t>
   </si>
@@ -347,6 +348,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOP HEM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reiro </t>
   </si>
 </sst>
 </file>
@@ -3314,8 +3321,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30030</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3331,7 +3338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="259046" y="1528792"/>
-          <a:ext cx="9759013" cy="1952650"/>
+          <a:ext cx="9759013" cy="2441630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,7 +3492,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Calcule o coeficiente de correlação linear entre as variáveis taxa de desocupação e taxa de rentabilidade média. A correlação é positiva ou negativa? É uma correlação forte?</a:t>
+            <a:t>Calcule o coeficiente de correlação linear entre as variáveis taxa de desocupação e taxa de rentabilidade média A correlação é positiva ou negativa? É uma correlação forte?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3504,8 +3511,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Obtenha o modelo de regressão linear simples. Com 90% de confiança, há relação linear entre as variáveis?</a:t>
+            <a:t>Obtenha o modelo de regressão linear simples. Com 90% de confiança, há relação linear entre as variáveis</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> top </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="342900" indent="-342900" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
@@ -3558,8 +3584,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Estime o valor da rentabilidade média da população de um município que possui 15% de taxa de desocupação.</a:t>
+            <a:t>Estime o valor da rentabilidade média da população de um município que possui 15% de taxa de desocupação</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="434343"/>
+              </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> tudo é top é que as coisas sao legais tudo é  legal  filho do Márcio chama Michel aventureiro amarelo ele é bonzinho sempre todos os dias</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="434343"/>
+            </a:solidFill>
+            <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6076,7 +6121,9 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9280,7 +9327,7 @@
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -16699,7 +16746,9 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17081,12 +17130,25 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B10:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/fia/20210622/doc/Regressão linear simples.xlsx
+++ b/fia/20210622/doc/Regressão linear simples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210622\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\iCloudDrive\Documents\FIA\Aplicações de Estatística - Turma 3 (2021)\1. Aulas\02. Regressão Linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915DB457-8DE4-48CA-8B17-E40D9898AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B962D3-DAE8-48FE-8430-6430C2D2F9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Cia Aérea" sheetId="16" r:id="rId1"/>
@@ -37,8 +37,18 @@
     <definedName name="X">cia_aerea!$A$2:$A$65536</definedName>
     <definedName name="Y">cia_aerea!$B$2:$B$65536</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>Tempo de Experiência (Anos)</t>
   </si>
@@ -345,15 +355,6 @@
   </si>
   <si>
     <t xml:space="preserve">salario &lt;- read_excel("Regressão linear simples.xlsx",sheet="Salario" ) #Função que lê o arquivo xls e salva em uma base de dados R </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOP HEM?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reiro </t>
   </si>
 </sst>
 </file>
@@ -751,7 +752,7 @@
                       <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -928,7 +929,7 @@
                 <a:cs typeface="Open Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1011,7 +1012,7 @@
                 <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="451941728"/>
@@ -1058,7 +1059,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1147,7 +1148,7 @@
                       </a:solidFill>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1407,7 +1408,7 @@
                 <a:cs typeface="Open Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1470,7 +1471,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="457541744"/>
@@ -1514,7 +1515,7 @@
           <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3321,8 +3322,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48363</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3338,7 +3339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="259046" y="1528792"/>
-          <a:ext cx="9759013" cy="2441630"/>
+          <a:ext cx="9759013" cy="1952650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3492,7 +3493,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Calcule o coeficiente de correlação linear entre as variáveis taxa de desocupação e taxa de rentabilidade média A correlação é positiva ou negativa? É uma correlação forte?</a:t>
+            <a:t>Calcule o coeficiente de correlação linear entre as variáveis taxa de desocupação e taxa de rentabilidade média. A correlação é positiva ou negativa? É uma correlação forte?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3511,27 +3512,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Obtenha o modelo de regressão linear simples. Com 90% de confiança, há relação linear entre as variáveis</a:t>
+            <a:t>Obtenha o modelo de regressão linear simples. Com 90% de confiança, há relação linear entre as variáveis?</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> top </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="342900" indent="-342900" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
@@ -3584,27 +3566,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Estime o valor da rentabilidade média da população de um município que possui 15% de taxa de desocupação</a:t>
+            <a:t>Estime o valor da rentabilidade média da população de um município que possui 15% de taxa de desocupação.</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="434343"/>
-              </a:solidFill>
-              <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> tudo é top é que as coisas sao legais tudo é  legal  filho do Márcio chama Michel aventureiro amarelo ele é bonzinho sempre todos os dias</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="434343"/>
-            </a:solidFill>
-            <a:latin typeface="Open Sans" panose="020B0604020202020204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5841,7 +5804,7 @@
   </sheetPr>
   <dimension ref="B14:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6121,9 +6084,7 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8392,9 +8353,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8615,9 +8574,6 @@
     <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -8792,9 +8748,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9327,9 +9281,7 @@
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16746,9 +16698,7 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17130,25 +17080,12 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B10:Q56"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="10" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
